--- a/medicine/Mort/Décès_en_1885/Décès_en_1885.xlsx
+++ b/medicine/Mort/Décès_en_1885/Décès_en_1885.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1885</t>
+          <t>Décès_en_1885</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -505,7 +517,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1885</t>
+          <t>Décès_en_1885</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -525,11 +537,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Mikhaïl Sajine, peintre paysagiste russe (° 1818).
-Giovanni Servi, peintre italien (° vers 1795).
-Janvier
-2 janvier :
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Mikhaïl Sajine, peintre paysagiste russe (° 1818).
+Giovanni Servi, peintre italien (° vers 1795).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1885</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1885</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2 janvier :
 Frédéric Baudry, philologue et bibliothécaire français (° 25 juillet 1818).
 Arnold Mortier, librettiste français (° 10 janvier 1843).
 3 janvier : Ludwig Bohnstedt, architecte allemand (° 27 octobre 1822).
@@ -630,54 +681,428 @@
 30 janvier :
 Theobald von Oer, peintre, illustrateur et aquafortiste allemand (° 9 octobre 1807).
 Marie-Clément de Reignié, homme politique français (° 4 octobre 1827).
-Charles Vatel, historien et collectionneur d'art français (° 5 décembre 1816).
-Février
-1er février : Sidney Gilchrist Thomas, ingénieur britannique (° 16 avril 1850).
+Charles Vatel, historien et collectionneur d'art français (° 5 décembre 1816).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1885</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1885</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1er février : Sidney Gilchrist Thomas, ingénieur britannique (° 16 avril 1850).
 8 février : Claude Guilleminet, peintre français (° 13 mars 1821).
 14 février : Jules Vallès, journaliste, écrivain et homme politique français (° 11 juin 1832).
-26 février : Laura Fredducci, peintre française (° 2 décembre 1812).
-Mars
-12 mars : Jean-Baptiste Messager, peintre et dessinateur français (° 1812).
+26 février : Laura Fredducci, peintre française (° 2 décembre 1812).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1885</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1885</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>12 mars : Jean-Baptiste Messager, peintre et dessinateur français (° 1812).
 16 mars : Auguste Steinheil, peintre français (° 26 juillet 1814).
 17 mars : Susan Warner, écrivaine américaine (° 11 juillet 1819).
-31 mars : Franz Abt, compositeur allemand (° 22 décembre 1819).
-Avril
-18 avril : Jean Pezous, peintre français (° 6 mars 1815).
-Mai
-1er mai : André Gill, caricaturiste, peintre et chansonnier français (° 17 octobre 1840).
+31 mars : Franz Abt, compositeur allemand (° 22 décembre 1819).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1885</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1885</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>18 avril : Jean Pezous, peintre français (° 6 mars 1815).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1885</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1885</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1er mai : André Gill, caricaturiste, peintre et chansonnier français (° 17 octobre 1840).
 11 mai : Ferdinand Hiller, compositeur, chef d'orchestre et professeur de musique allemand (° 24 octobre 1811).
 22 mai : Victor Hugo, poète, écrivain, romancier et dramaturge français (° 26 février 1802).
-23 mai : Carl Baermann, clarinettiste et compositeur allemand (° 24 octobre 1810).
-Juin
-1er juin : Armand Leleux, peintre français (° 18 juin 1818).
+23 mai : Carl Baermann, clarinettiste et compositeur allemand (° 24 octobre 1810).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1885</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1885</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1er juin : Armand Leleux, peintre français (° 18 juin 1818).
 5 juin : Julius Benedict, compositeur et chef d'orchestre allemand naturalisé anglais (° 27 novembre 1804).
-25 juin : Michel Dumas, peintre français (° 19 juin 1812).
-Juillet
-15 juillet : Rosalía de Castro, écrivain et poétesse galicienne (° 24 février 1837).
+25 juin : Michel Dumas, peintre français (° 19 juin 1812).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1885</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1885</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>15 juillet : Rosalía de Castro, écrivain et poétesse galicienne (° 24 février 1837).
 23 juillet : Ulysses S. Grant, Président des États-Unis de 1869 à 1877 (° 27 avril 1822).
-29 juillet : Henri Milne Edwards, zoologiste français (° 23 octobre 1800).
-Août
-20 août : Édouard Agneessens, peintre belge (° 24 août 1842).
+29 juillet : Henri Milne Edwards, zoologiste français (° 23 octobre 1800).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1885</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1885</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>20 août : Édouard Agneessens, peintre belge (° 24 août 1842).
 28 août :
 Julius Hopp, chef d'orchestre, arrangeur et traducteur autrichien (° 18 mai 1819).
-Léon Albert Hayon, peintre français (° 16 novembre).
-Septembre
-2 septembre : Pierre Letuaire, peintre et dessinateur français (° 6 août 1798).
+Léon Albert Hayon, peintre français (° 16 novembre).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1885</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1885</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2 septembre : Pierre Letuaire, peintre et dessinateur français (° 6 août 1798).
 11 septembre : Henri Charles Antoine Baron, peintre et illustrateur français (° 23 juin 1816).
 13 septembre : Friedrich Kiel, compositeur et pédagogue allemand (° 7 octobre 1821).
-23 septembre : Carl Spitzweg, poète et peintre allemand (° 5 février 1808).
-Octobre
-8 octobre : Émile Perrin, peintre, critique d'art et décorateur de théâtre français (° 9 janvier 1814).
+23 septembre : Carl Spitzweg, poète et peintre allemand (° 5 février 1808).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1885</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1885</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>8 octobre : Émile Perrin, peintre, critique d'art et décorateur de théâtre français (° 9 janvier 1814).
 14 octobre : Thomas Davidson, paléontologue britannique (° 17 mai 1817).
 20 octobre : Michele Novaro, compositeur et patriote italien (° 23 décembre 1818).
 21 octobre : Frédérique Émilie Auguste O'Connell, peintre allemande (° 22 mars 1823).
-30 octobre : Gustav Adolf Merkel, organiste et compositeur allemand (° 12 novembre 1827).
-Novembre
-16 novembre : Louis Riel, « père » du Manitoba, Canada (° 22 octobre 1844).
+30 octobre : Gustav Adolf Merkel, organiste et compositeur allemand (° 12 novembre 1827).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1885</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1885</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>16 novembre : Louis Riel, « père » du Manitoba, Canada (° 22 octobre 1844).
 18 novembre : Theo van Lynden van Sandenburg, homme politique néerlandais (° 1826).
-28 novembre : Ferdinand Charles François de Pape, peintre belge (° 10 avril 1810).
-Décembre
-9 décembre : Auguste Hussenot, dessinateur, peintre et décorateur français (° 15 décembre 1798).
+28 novembre : Ferdinand Charles François de Pape, peintre belge (° 10 avril 1810).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1885</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1885</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>9 décembre : Auguste Hussenot, dessinateur, peintre et décorateur français (° 15 décembre 1798).
 25 décembre : Amaury-Duval, peintre français (° 16 avril 1808).</t>
         </is>
       </c>
